--- a/docs/进度.xlsx
+++ b/docs/进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>任务类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>实现服务端消息推送分发功能：1、先添加连接消息，用于服务器记录数据，将客户端的各种基本信息保存下来用于返回客户端显示，比如客户端需要的IP、状态等等；2、教师端，还需要配置学生端的数量和对应IP（如果设置了，还要通过连接消息判断该IP是否合法，如果不合法，应该断开连接，即发送消息，弹出提示无效IP，然后退出客户端）；3、登陆成功，服务器还应该将客户端信息列表发送到登陆成功的客户端中进行显示，如果是教师端，则初始为空，等待配置完成后，发送到教师端中显示，学生端只有等当教师端配置完成后才能登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师端点击锁屏，对所有学生端进行锁屏操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、演示：1、由教师端发起消息，通知学生端进入等待接收教师端图像数据的状态；2、教师端发送当前屏幕数据信息，通知服务器转发到学生端中显示。二、学生示范（进击版）：学生端发起消息，教师端接收到演示消息，则打开一个新窗口用于接收学生端发来的屏幕信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -466,15 +478,46 @@
       <c r="A3" s="3">
         <v>42802</v>
       </c>
+      <c r="B3" s="3">
+        <v>42805</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D4" s="4"/>
+      <c r="A4" s="3">
+        <v>42805</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42805</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>42806</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/进度.xlsx
+++ b/docs/进度.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="总进度" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
